--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Allman_Bullock/Arthur_Allman_Bullock.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Allman_Bullock/Arthur_Allman_Bullock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Allman Bullock, né le 8 février 1906 à Grimsby en Angleterre, mort le 24 octobre 1980 à Kew en Angleterre, est un botaniste anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1929 à 1968, il travaille à l'herbarium des jardins botaniques royaux de Kew. Il est spécialisé dans les plantes d'Afrique du Sud, de Madagascar, des Mascareignes ainsi que dans la famille des Asclepiadoideae.
 </t>
@@ -542,9 +556,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilbert Westacott Reynolds, botaniste sud-africain de renom, lui rend hommage en donnant son nom à Aloe bullockii. De même, les genres Bullockia (Bridson) Razafim., Lantz &amp; B.Bremer, de la famille des Rubiacées (Rubiaceae) et Buckollia Venter &amp; R. L. Verh., de la famille des Apocynacées (Apocynaceae) lui ont été dédiés [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilbert Westacott Reynolds, botaniste sud-africain de renom, lui rend hommage en donnant son nom à Aloe bullockii. De même, les genres Bullockia (Bridson) Razafim., Lantz &amp; B.Bremer, de la famille des Rubiacées (Rubiaceae) et Buckollia Venter &amp; R. L. Verh., de la famille des Apocynacées (Apocynaceae) lui ont été dédiés .
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Sélection d'ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O. A. Leistner (Hrsg.): Flora of Southern Africa. Bibliography of South African Botany. 1978.
 Notes on African Asclepiadoideae VII. In: Bulletin of Kew. Band 10, 1955, S. 611–626, JSTOR:4113775.</t>
@@ -604,7 +622,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Walter Erhardt, Erich Götz, Nils Bödeker, Siegmund Seybold: . 2: Arten und Sorten. Eugen Ulmer Verlag, Stuttgart 2008,  (ISBN 978-3-8001-5406-7).</t>
         </is>
